--- a/training/output/CNN/W/W3_W0.xlsx
+++ b/training/output/CNN/W/W3_W0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5194493006993007</v>
+        <v>0.1470833333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>2.848057876933705</v>
+        <v>3.063072919845581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7139423076923077</v>
+        <v>0.2375</v>
       </c>
       <c r="B3" t="n">
-        <v>2.139576001600786</v>
+        <v>2.833537578582764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.753715034965035</v>
+        <v>0.2683333333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>1.953892268917777</v>
+        <v>2.793487012386322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7679195804195804</v>
+        <v>0.3358333333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>1.83646530454809</v>
+        <v>2.729924201965332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7792832167832168</v>
+        <v>0.4220833333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>1.706275631080974</v>
+        <v>2.665270030498505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7821241258741259</v>
+        <v>0.3779166666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>1.64654619585384</v>
+        <v>2.652044355869293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7906468531468532</v>
+        <v>0.3397916666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>1.59776322408156</v>
+        <v>2.642078280448914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.3275</v>
       </c>
       <c r="B9" t="n">
-        <v>1.5702611153776</v>
+        <v>2.597792029380798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.3852083333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>1.594206809997559</v>
+        <v>2.56183385848999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.3447916666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>1.551946369084445</v>
+        <v>2.531514465808868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7963286713286714</v>
+        <v>0.3172916666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.56863470511003</v>
+        <v>2.514690160751343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7934877622377623</v>
+        <v>0.400625</v>
       </c>
       <c r="B13" t="n">
-        <v>1.535980490120974</v>
+        <v>2.494199454784393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.3397916666666667</v>
       </c>
       <c r="B14" t="n">
-        <v>1.505625123327429</v>
+        <v>2.481815874576569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.3964583333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>1.503258439627561</v>
+        <v>2.451900124549866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.816215034965035</v>
+        <v>0.3729166666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.478370839899237</v>
+        <v>2.405233919620514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.816215034965035</v>
+        <v>0.40875</v>
       </c>
       <c r="B17" t="n">
-        <v>1.480287985368208</v>
+        <v>2.386014521121979</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.355625</v>
       </c>
       <c r="B18" t="n">
-        <v>1.480658477002924</v>
+        <v>2.384895741939545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.3985416666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.452451077374545</v>
+        <v>2.344126522541046</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.41625</v>
       </c>
       <c r="B20" t="n">
-        <v>1.494541390375657</v>
+        <v>2.338992536067963</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.816215034965035</v>
+        <v>0.4364583333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.455292642116547</v>
+        <v>2.330511271953583</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.816215034965035</v>
+        <v>0.4366666666666667</v>
       </c>
       <c r="B22" t="n">
-        <v>1.44208699464798</v>
+        <v>2.274030208587646</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.4114583333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>1.447403338822451</v>
+        <v>2.338672459125519</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.4139583333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>1.449006069790233</v>
+        <v>2.271714627742767</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.42625</v>
       </c>
       <c r="B25" t="n">
-        <v>1.427956028418107</v>
+        <v>2.255820155143738</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.4391666666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>1.4351738745516</v>
+        <v>2.219511032104492</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.816215034965035</v>
+        <v>0.4135416666666667</v>
       </c>
       <c r="B27" t="n">
-        <v>1.445890908891504</v>
+        <v>2.26542592048645</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.3985416666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>1.424250570210543</v>
+        <v>2.211531639099121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.390625</v>
       </c>
       <c r="B29" t="n">
-        <v>1.440070152282715</v>
+        <v>2.167638003826141</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.38875</v>
       </c>
       <c r="B30" t="n">
-        <v>1.424890902909365</v>
+        <v>2.175398111343384</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.4039583333333333</v>
       </c>
       <c r="B31" t="n">
-        <v>1.447149471803145</v>
+        <v>2.202353060245514</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.4116666666666667</v>
       </c>
       <c r="B32" t="n">
-        <v>1.437703799117695</v>
+        <v>2.19979453086853</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.429375</v>
       </c>
       <c r="B33" t="n">
-        <v>1.431708146225322</v>
+        <v>2.151653468608856</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.4116666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>1.426568697799336</v>
+        <v>2.174503564834595</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.4389583333333333</v>
       </c>
       <c r="B35" t="n">
-        <v>1.418782472610474</v>
+        <v>2.101630866527557</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.4397916666666667</v>
       </c>
       <c r="B36" t="n">
-        <v>1.429859854958274</v>
+        <v>2.059259176254272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.4547916666666666</v>
       </c>
       <c r="B37" t="n">
-        <v>1.440243585543199</v>
+        <v>2.047190845012665</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.495625</v>
       </c>
       <c r="B38" t="n">
-        <v>1.459120647473769</v>
+        <v>2.067264378070831</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.816215034965035</v>
+        <v>0.4041666666666667</v>
       </c>
       <c r="B39" t="n">
-        <v>1.431873039765791</v>
+        <v>2.120953291654587</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.45125</v>
       </c>
       <c r="B40" t="n">
-        <v>1.416819258169694</v>
+        <v>2.13433974981308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.4529166666666666</v>
       </c>
       <c r="B41" t="n">
-        <v>1.414277493953705</v>
+        <v>2.095390319824219</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.4766666666666667</v>
       </c>
       <c r="B42" t="n">
-        <v>1.419651654633609</v>
+        <v>2.066617488861084</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.4827083333333334</v>
       </c>
       <c r="B43" t="n">
-        <v>1.429054314439947</v>
+        <v>2.035708278417587</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.5260416666666666</v>
       </c>
       <c r="B44" t="n">
-        <v>1.422480512749065</v>
+        <v>2.018214195966721</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.5877083333333334</v>
       </c>
       <c r="B45" t="n">
-        <v>1.427409052848816</v>
+        <v>1.969525724649429</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.816215034965035</v>
+        <v>0.5435416666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>1.416645889932459</v>
+        <v>2.037737727165222</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.5316666666666666</v>
       </c>
       <c r="B47" t="n">
-        <v>1.440851585431532</v>
+        <v>2.004504412412643</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.54375</v>
       </c>
       <c r="B48" t="n">
-        <v>1.411822519519112</v>
+        <v>1.943398237228394</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8048513986013986</v>
+        <v>0.5689583333333333</v>
       </c>
       <c r="B49" t="n">
-        <v>1.416068954901262</v>
+        <v>1.9151691198349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.816215034965035</v>
+        <v>0.5447916666666667</v>
       </c>
       <c r="B50" t="n">
-        <v>1.413857373324308</v>
+        <v>1.983229905366898</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.5770833333333334</v>
       </c>
       <c r="B51" t="n">
-        <v>1.422181974757802</v>
+        <v>1.947212368249893</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.5912500000000001</v>
       </c>
       <c r="B52" t="n">
-        <v>1.409422598101876</v>
+        <v>1.919681340456009</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.6020833333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>1.403912219134244</v>
+        <v>1.917806357145309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.5918749999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>1.409461666237224</v>
+        <v>1.908296763896942</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.5670833333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>1.403708468783986</v>
+        <v>1.852214753627777</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.5716666666666667</v>
       </c>
       <c r="B56" t="n">
-        <v>1.40618112412366</v>
+        <v>1.863470047712326</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.816215034965035</v>
+        <v>0.6239583333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>1.406172622333873</v>
+        <v>1.81386610865593</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>1.404846765778281</v>
+        <v>1.814437180757523</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.6297916666666666</v>
       </c>
       <c r="B59" t="n">
-        <v>1.402333075349981</v>
+        <v>1.811871945858002</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.6239583333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>1.40329340913079</v>
+        <v>1.82223454117775</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.6047916666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>1.401014143770391</v>
+        <v>1.811439424753189</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.816215034965035</v>
+        <v>0.5939583333333334</v>
       </c>
       <c r="B62" t="n">
-        <v>1.409973323345184</v>
+        <v>1.825589329004288</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.5864583333333333</v>
       </c>
       <c r="B63" t="n">
-        <v>1.402575812556527</v>
+        <v>1.831043243408203</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.816215034965035</v>
+        <v>0.6354166666666666</v>
       </c>
       <c r="B64" t="n">
-        <v>1.40695458650589</v>
+        <v>1.773106008768082</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.6422916666666667</v>
       </c>
       <c r="B65" t="n">
-        <v>1.409796676852486</v>
+        <v>1.72363954782486</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.6441666666666667</v>
       </c>
       <c r="B66" t="n">
-        <v>1.401103285225955</v>
+        <v>1.705706506967545</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.6577083333333335</v>
       </c>
       <c r="B67" t="n">
-        <v>1.400692284107208</v>
+        <v>1.75142514705658</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.6391666666666667</v>
       </c>
       <c r="B68" t="n">
-        <v>1.40313598242673</v>
+        <v>1.711540967226028</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.641875</v>
       </c>
       <c r="B69" t="n">
-        <v>1.399828677827662</v>
+        <v>1.705927848815918</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.681875</v>
       </c>
       <c r="B70" t="n">
-        <v>1.39868114753203</v>
+        <v>1.670641005039215</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.6291666666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>1.474177978255532</v>
+        <v>1.694348067045212</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.6893750000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>1.403530565175143</v>
+        <v>1.678997784852982</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.816215034965035</v>
+        <v>0.7245833333333335</v>
       </c>
       <c r="B73" t="n">
-        <v>1.399888824332844</v>
+        <v>1.671294093132019</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.7129166666666666</v>
       </c>
       <c r="B74" t="n">
-        <v>1.403838152235205</v>
+        <v>1.629596501588821</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8133741258741259</v>
+        <v>0.6972916666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>1.407672968777743</v>
+        <v>1.64936426281929</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.651875</v>
       </c>
       <c r="B76" t="n">
-        <v>1.405628524043343</v>
+        <v>1.679382860660553</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.6920833333333333</v>
       </c>
       <c r="B77" t="n">
-        <v>1.402999997138977</v>
+        <v>1.619826406240463</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.6991666666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>1.400908145037564</v>
+        <v>1.613410323858261</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.6895833333333333</v>
       </c>
       <c r="B79" t="n">
-        <v>1.406525151296095</v>
+        <v>1.634033590555191</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.6972916666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>1.402314700863578</v>
+        <v>1.6135114133358</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.7097916666666666</v>
       </c>
       <c r="B81" t="n">
-        <v>1.3978729410605</v>
+        <v>1.613435208797455</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.7147916666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>1.40179274298928</v>
+        <v>1.607902467250824</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.6902083333333333</v>
       </c>
       <c r="B83" t="n">
-        <v>1.399348367344249</v>
+        <v>1.553625702857971</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>1.398431626233188</v>
+        <v>1.62640768289566</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="B85" t="n">
-        <v>1.397538651119579</v>
+        <v>1.637432664632797</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>1.400008169087497</v>
+        <v>1.545339316129684</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.6879166666666667</v>
       </c>
       <c r="B87" t="n">
-        <v>1.40235776792873</v>
+        <v>1.549875557422638</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.7002083333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>1.408834078095176</v>
+        <v>1.558527112007141</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.7022916666666666</v>
       </c>
       <c r="B89" t="n">
-        <v>1.412628417665308</v>
+        <v>1.561432182788849</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.6802083333333333</v>
       </c>
       <c r="B90" t="n">
-        <v>1.400030347433957</v>
+        <v>1.562875866889954</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.816215034965035</v>
+        <v>0.7424999999999999</v>
       </c>
       <c r="B91" t="n">
-        <v>1.407328551465815</v>
+        <v>1.543948769569397</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.7327083333333333</v>
       </c>
       <c r="B92" t="n">
-        <v>1.40164589881897</v>
+        <v>1.494373232126236</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.7402083333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.411854521794753</v>
+        <v>1.466288536787033</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.7424999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>1.398304814642126</v>
+        <v>1.450968950986862</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.7729166666666666</v>
       </c>
       <c r="B95" t="n">
-        <v>1.397698575800115</v>
+        <v>1.433233648538589</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.723125</v>
       </c>
       <c r="B96" t="n">
-        <v>1.396315585483204</v>
+        <v>1.512065142393112</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8247377622377623</v>
+        <v>0.7577083333333333</v>
       </c>
       <c r="B97" t="n">
-        <v>1.398531610315496</v>
+        <v>1.452723801136017</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="B98" t="n">
-        <v>1.398341097614982</v>
+        <v>1.417285144329071</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.7752083333333334</v>
       </c>
       <c r="B99" t="n">
-        <v>1.411975210363215</v>
+        <v>1.410559237003326</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7677083333333333</v>
       </c>
       <c r="B100" t="n">
-        <v>1.398931763388894</v>
+        <v>1.387591987848282</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.7952083333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.406663065606897</v>
+        <v>1.326060116291046</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.8008333333333333</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.344564616680145</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.7854166666666667</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.383201897144318</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.325613498687744</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.8310416666666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.317723602056503</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.833125</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.285415798425674</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.845625</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.241206109523773</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.8585416666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.280298799276352</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.855625</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.249273747205734</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.8739583333333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.225540667772293</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.884375</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.217905968427658</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.8791666666666667</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.188423067331314</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.8895833333333334</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.201133012771606</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.8916666666666666</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.172619700431824</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.8789583333333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.288305133581161</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.8845833333333334</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.327913403511047</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.8766666666666666</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.180649608373642</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.8866666666666666</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.139655530452728</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.899375</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.127003848552704</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.894375</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.122605502605438</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9097916666666667</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.091402649879456</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.8939583333333334</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.098033666610718</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.899375</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.11535233259201</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9120833333333334</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.06543180346489</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9172916666666666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.127572476863861</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.896875</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.09118777513504</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9145833333333334</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.031547799706459</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9222916666666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.046463117003441</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9122916666666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.070912927389145</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.85375</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.262979626655579</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.8897916666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.144881039857864</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.8972916666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.096060305833817</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9220833333333334</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9899009168148041</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.028160288929939</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9120833333333334</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9889149367809296</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9851416498422623</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9851730614900589</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.012560978531837</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9020833333333333</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9652945250272751</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9435795545578003</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9225</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9715305864810944</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.930923655629158</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9145833333333334</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9307781755924225</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9272916666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9348058998584747</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9199801385402679</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9138356298208237</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9297916666666667</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.8910617828369141</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.8802417665719986</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.8791625797748566</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.8626236468553543</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.8468007296323776</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.8591875284910202</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.000519618391991</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9225</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.8715500980615616</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.845116600394249</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.8318152129650116</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.8324578106403351</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.8324195146560669</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.8282109946012497</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.8240965008735657</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.8192824721336365</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.8076143562793732</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9247916666666666</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.8563522845506668</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9025</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.038978829979897</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9225</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.8586136400699615</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9225</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.8549846410751343</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.8119734525680542</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.80843585729599</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.8003852218389511</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.8194861859083176</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.812096506357193</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7849444150924683</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.8009891957044601</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9349999999999999</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.8061247766017914</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7929835170507431</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7829158753156662</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7948817759752274</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7920065671205521</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7792205810546875</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.775424599647522</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7829170525074005</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.771358996629715</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7833230048418045</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7756076455116272</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9450000000000001</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7812885195016861</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7683252245187759</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7716522365808487</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.775885134935379</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7623678892850876</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.765441820025444</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7552988231182098</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7554204016923904</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.758643850684166</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9450000000000001</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7722557187080383</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7607048153877258</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7578985840082169</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9450000000000001</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7606036812067032</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9450000000000001</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7717019617557526</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9450000000000001</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7565057277679443</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7596680521965027</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.754182294011116</v>
       </c>
     </row>
   </sheetData>
